--- a/biology/Médecine/Groupe_Profession_Santé/Groupe_Profession_Santé.xlsx
+++ b/biology/Médecine/Groupe_Profession_Santé/Groupe_Profession_Santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupe_Profession_Sant%C3%A9</t>
+          <t>Groupe_Profession_Santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Groupe Profession Santé est une marque déposée de la société Janus[1]. Le groupe édite des titres de presse et des sites d'information médicale, tels que Le Quotidien du médecin, Le Quotidien du pharmacien, Le Généraliste, Infirmiers.com, Décision &amp; Stratégie Santé, Remede.org, cadredesante.com, Réseau CHU.  
+Le Groupe Profession Santé est une marque déposée de la société Janus. Le groupe édite des titres de presse et des sites d'information médicale, tels que Le Quotidien du médecin, Le Quotidien du pharmacien, Le Généraliste, Infirmiers.com, Décision &amp; Stratégie Santé, Remede.org, cadredesante.com, Réseau CHU.  
 Le groupe propose également des services autour de la santé dédiés à l'emploi, à la formation et à l'équipement. 
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupe_Profession_Sant%C3%A9</t>
+          <t>Groupe_Profession_Santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groupe Profession Santé est le fruit du rachat du pôle presse et édition d’UBM Medica France par plusieurs membres de sa direction en 2011.
-En 2016, le Groupe Profession Santé rejoint le groupe MNH[2],[3] et l’intègre à l’« univers Médias » de MNH Group aux côtés d’Izeos[4], d’Hospimedia[3], de PG Promotion et d’Eventime. En novembre 2018, MNH Group est rebaptisé « nehs » (Nouvelle Entreprise Humaine en Santé).
-En 2017, Antoine Huron[5], directeur général du groupe IZEOS depuis 17 ans, remplace Julien Kouchner en qualité de directeur général du Groupe Profession Santé. En juin 2018, Nicolas Bohuon lui succède[6].
+En 2016, le Groupe Profession Santé rejoint le groupe MNH, et l’intègre à l’« univers Médias » de MNH Group aux côtés d’Izeos, d’Hospimedia, de PG Promotion et d’Eventime. En novembre 2018, MNH Group est rebaptisé « nehs » (Nouvelle Entreprise Humaine en Santé).
+En 2017, Antoine Huron, directeur général du groupe IZEOS depuis 17 ans, remplace Julien Kouchner en qualité de directeur général du Groupe Profession Santé. En juin 2018, Nicolas Bohuon lui succède.
 Le 1er janvier 2018, le Groupe Profession Santé fusionne avec Izeos, spécialiste des médias et services digitaux dédiés au secteur paramédical.
-Le 22 novembre 2019, nehs annonce la nomination de Christian Nicoli au poste de Directeur général du Groupe Profession Santé[7]. 
+Le 22 novembre 2019, nehs annonce la nomination de Christian Nicoli au poste de Directeur général du Groupe Profession Santé. 
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groupe_Profession_Sant%C3%A9</t>
+          <t>Groupe_Profession_Santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Le groupe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groupe Profession Santé est un groupe de médias pour les professionnels de la santé en France. Il s’adresse aux médecins, aux pharmaciens, au personnel paramédical, aux décideurs hospitaliers.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Groupe_Profession_Sant%C3%A9</t>
+          <t>Groupe_Profession_Santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Médias</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le groupe exploite plusieurs médias d’information destinés à l’ensemble des professionnels de la santé :
 Le Quotidien du médecin
